--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.788130666666667</v>
+        <v>10.934894</v>
       </c>
       <c r="H2">
-        <v>5.364392</v>
+        <v>32.804682</v>
       </c>
       <c r="I2">
-        <v>0.08755714261138148</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="J2">
-        <v>0.08755714261138149</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.132555</v>
+        <v>0.165174</v>
       </c>
       <c r="N2">
-        <v>0.397665</v>
+        <v>0.495522</v>
       </c>
       <c r="O2">
-        <v>0.002244436732931371</v>
+        <v>0.00279520163427027</v>
       </c>
       <c r="P2">
-        <v>0.002244436732931371</v>
+        <v>0.002795201634270271</v>
       </c>
       <c r="Q2">
-        <v>0.23702566052</v>
+        <v>1.806160181556</v>
       </c>
       <c r="R2">
-        <v>2.133230944680001</v>
+        <v>16.255441634004</v>
       </c>
       <c r="S2">
-        <v>0.0001965164671074952</v>
+        <v>0.00103368464707829</v>
       </c>
       <c r="T2">
-        <v>0.0001965164671074952</v>
+        <v>0.001033684647078291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.788130666666667</v>
+        <v>10.934894</v>
       </c>
       <c r="H3">
-        <v>5.364392</v>
+        <v>32.804682</v>
       </c>
       <c r="I3">
-        <v>0.08755714261138148</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="J3">
-        <v>0.08755714261138149</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>136.593814</v>
       </c>
       <c r="O3">
-        <v>0.7709408010078718</v>
+        <v>0.7705152387260491</v>
       </c>
       <c r="P3">
-        <v>0.7709408010078719</v>
+        <v>0.7705152387260492</v>
       </c>
       <c r="Q3">
-        <v>81.41586256345423</v>
+        <v>497.8796257152387</v>
       </c>
       <c r="R3">
-        <v>732.7427630710881</v>
+        <v>4480.916631437149</v>
       </c>
       <c r="S3">
-        <v>0.0675013736587789</v>
+        <v>0.2849417955563379</v>
       </c>
       <c r="T3">
-        <v>0.06750137365877892</v>
+        <v>0.2849417955563379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.788130666666667</v>
+        <v>10.934894</v>
       </c>
       <c r="H4">
-        <v>5.364392</v>
+        <v>32.804682</v>
       </c>
       <c r="I4">
-        <v>0.08755714261138148</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="J4">
-        <v>0.08755714261138149</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>40.186605</v>
       </c>
       <c r="O4">
-        <v>0.2268147622591968</v>
+        <v>0.2266895596396806</v>
       </c>
       <c r="P4">
-        <v>0.2268147622591968</v>
+        <v>0.2266895596396806</v>
       </c>
       <c r="Q4">
-        <v>23.95296692990667</v>
+        <v>146.47875529829</v>
       </c>
       <c r="R4">
-        <v>215.57670236916</v>
+        <v>1318.30879768461</v>
       </c>
       <c r="S4">
-        <v>0.01985925248549508</v>
+        <v>0.08383134675493654</v>
       </c>
       <c r="T4">
-        <v>0.01985925248549508</v>
+        <v>0.08383134675493654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>34.355763</v>
       </c>
       <c r="I5">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="J5">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.132555</v>
+        <v>0.165174</v>
       </c>
       <c r="N5">
-        <v>0.397665</v>
+        <v>0.495522</v>
       </c>
       <c r="O5">
-        <v>0.002244436732931371</v>
+        <v>0.00279520163427027</v>
       </c>
       <c r="P5">
-        <v>0.002244436732931371</v>
+        <v>0.002795201634270271</v>
       </c>
       <c r="Q5">
-        <v>1.518009388155</v>
+        <v>1.891559599254</v>
       </c>
       <c r="R5">
-        <v>13.662084493395</v>
+        <v>17.024036393286</v>
       </c>
       <c r="S5">
-        <v>0.001258571925680002</v>
+        <v>0.001082559640473283</v>
       </c>
       <c r="T5">
-        <v>0.001258571925680002</v>
+        <v>0.001082559640473284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>34.355763</v>
       </c>
       <c r="I6">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="J6">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>136.593814</v>
       </c>
       <c r="O6">
-        <v>0.7709408010078718</v>
+        <v>0.7705152387260491</v>
       </c>
       <c r="P6">
-        <v>0.7709408010078719</v>
+        <v>0.7705152387260492</v>
       </c>
       <c r="Q6">
-        <v>521.420522338898</v>
+        <v>521.4205223388981</v>
       </c>
       <c r="R6">
-        <v>4692.784701050082</v>
+        <v>4692.784701050083</v>
       </c>
       <c r="S6">
-        <v>0.432306437634582</v>
+        <v>0.2984145006169545</v>
       </c>
       <c r="T6">
-        <v>0.432306437634582</v>
+        <v>0.2984145006169546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>34.355763</v>
       </c>
       <c r="I7">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="J7">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>40.186605</v>
       </c>
       <c r="O7">
-        <v>0.2268147622591968</v>
+        <v>0.2266895596396806</v>
       </c>
       <c r="P7">
-        <v>0.2268147622591968</v>
+        <v>0.2266895596396806</v>
       </c>
       <c r="Q7">
         <v>153.404608572735</v>
@@ -880,10 +880,10 @@
         <v>1380.641477154615</v>
       </c>
       <c r="S7">
-        <v>0.127186784960687</v>
+        <v>0.08779508611250732</v>
       </c>
       <c r="T7">
-        <v>0.127186784960687</v>
+        <v>0.08779508611250733</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>21.547171</v>
       </c>
       <c r="I8">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="J8">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.132555</v>
+        <v>0.165174</v>
       </c>
       <c r="N8">
-        <v>0.397665</v>
+        <v>0.495522</v>
       </c>
       <c r="O8">
-        <v>0.002244436732931371</v>
+        <v>0.00279520163427027</v>
       </c>
       <c r="P8">
-        <v>0.002244436732931371</v>
+        <v>0.002795201634270271</v>
       </c>
       <c r="Q8">
-        <v>0.952061750635</v>
+        <v>1.186344140918</v>
       </c>
       <c r="R8">
-        <v>8.568555755715</v>
+        <v>10.677097268262</v>
       </c>
       <c r="S8">
-        <v>0.0007893483401438733</v>
+        <v>0.0006789573467186963</v>
       </c>
       <c r="T8">
-        <v>0.0007893483401438733</v>
+        <v>0.0006789573467186964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.547171</v>
       </c>
       <c r="I9">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="J9">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>136.593814</v>
       </c>
       <c r="O9">
-        <v>0.7709408010078718</v>
+        <v>0.7705152387260491</v>
       </c>
       <c r="P9">
-        <v>0.7709408010078719</v>
+        <v>0.7705152387260492</v>
       </c>
       <c r="Q9">
         <v>327.0233630889105</v>
@@ -1004,10 +1004,10 @@
         <v>2943.210267800194</v>
       </c>
       <c r="S9">
-        <v>0.2711329897145109</v>
+        <v>0.1871589425527567</v>
       </c>
       <c r="T9">
-        <v>0.2711329897145109</v>
+        <v>0.1871589425527567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.547171</v>
       </c>
       <c r="I10">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="J10">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>40.186605</v>
       </c>
       <c r="O10">
-        <v>0.2268147622591968</v>
+        <v>0.2266895596396806</v>
       </c>
       <c r="P10">
-        <v>0.2268147622591968</v>
+        <v>0.2266895596396806</v>
       </c>
       <c r="Q10">
         <v>96.21196109382834</v>
@@ -1066,10 +1066,10 @@
         <v>865.9076498444549</v>
       </c>
       <c r="S10">
-        <v>0.07976872481301467</v>
+        <v>0.05506312677223674</v>
       </c>
       <c r="T10">
-        <v>0.07976872481301467</v>
+        <v>0.05506312677223674</v>
       </c>
     </row>
   </sheetData>
